--- a/analysis/pre_gemini_data/Participant160/task_med.xlsx
+++ b/analysis/pre_gemini_data/Participant160/task_med.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,172 +422,168 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg4</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>arg5</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>asign</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>condbody1</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>condbody2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>conditionalstat1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>conditstat2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>exception</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>external1</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>external2</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>external3</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>loopstat</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>methodcall1</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>methodcall3</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>methodcall4</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>methodcall5</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>param1</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>param2</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>vaar4</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>var1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
@@ -660,10 +644,10 @@
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" t="n">
         <v>10</v>
@@ -675,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -688,7 +672,7 @@
         <v>7</v>
       </c>
       <c r="R3" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="n">
@@ -706,7 +690,7 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
@@ -732,10 +716,10 @@
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I4" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J4" t="n">
         <v>12</v>
@@ -747,7 +731,7 @@
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -760,7 +744,7 @@
         <v>33</v>
       </c>
       <c r="R4" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
@@ -778,7 +762,7 @@
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="n">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
@@ -804,10 +788,10 @@
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>25896.57</v>
+        <v>24111.33</v>
       </c>
       <c r="I5" t="n">
-        <v>22326.15</v>
+        <v>21925.71</v>
       </c>
       <c r="J5" t="n">
         <v>2536.43</v>
@@ -819,7 +803,7 @@
         <v>1434.99</v>
       </c>
       <c r="M5" t="n">
-        <v>17086.98</v>
+        <v>16753.3</v>
       </c>
       <c r="N5" t="n">
         <v>200.17</v>
@@ -832,7 +816,7 @@
         <v>9745.549999999999</v>
       </c>
       <c r="R5" t="n">
-        <v>21758.51</v>
+        <v>21424.83</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
@@ -850,7 +834,7 @@
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="n">
-        <v>145438.35</v>
+        <v>132958.78</v>
       </c>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
@@ -872,57 +856,57 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>8.74</v>
+        <v>9.51</v>
       </c>
       <c r="I6" t="n">
-        <v>7.53</v>
+        <v>8.65</v>
       </c>
       <c r="J6" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="L6" t="n">
-        <v>0.48</v>
+        <v>0.57</v>
       </c>
       <c r="M6" t="n">
-        <v>5.77</v>
+        <v>6.61</v>
       </c>
       <c r="N6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="Q6" t="n">
         <v>22.84</v>
       </c>
       <c r="R6" t="n">
-        <v>7.34</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>0.44</v>
+        <v>0.51</v>
       </c>
       <c r="X6" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="n">
-        <v>49.08</v>
+        <v>52.42</v>
       </c>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
@@ -930,7 +914,7 @@
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="7">
@@ -948,10 +932,10 @@
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>225.19</v>
+        <v>219.19</v>
       </c>
       <c r="I7" t="n">
-        <v>227.82</v>
+        <v>228.39</v>
       </c>
       <c r="J7" t="n">
         <v>211.37</v>
@@ -963,7 +947,7 @@
         <v>287</v>
       </c>
       <c r="M7" t="n">
-        <v>227.83</v>
+        <v>226.4</v>
       </c>
       <c r="N7" t="n">
         <v>200.17</v>
@@ -976,7 +960,7 @@
         <v>295.32</v>
       </c>
       <c r="R7" t="n">
-        <v>236.51</v>
+        <v>235.44</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
@@ -994,7 +978,7 @@
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="n">
-        <v>310.77</v>
+        <v>302.18</v>
       </c>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
